--- a/pred_ohlcv/54_21/2020-01-16 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ANKR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-210517.3887630099</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-511618.4433630098</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-56576.14861526142</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-84650.14861526142</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-430873.6437152614</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1705079.617315261</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1327205.325215261</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1211909.640915261</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-7052254.853615261</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-6605094.545515261</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-6605094.545515261</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-6605094.545515261</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-7295448.748415261</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-7377490.360815261</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-7440434.89881526</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-7357184.89881526</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-8527976.997615261</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-8561105.737215262</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-8561105.737215262</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-8509479.542315261</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-8509479.542315261</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-8183955.958415261</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-8183607.095715261</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-8183607.095715261</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-8183607.095715261</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-8082417.124815261</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-9265291.05501526</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-8778811.36331526</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-8617407.704815259</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-8680395.017415259</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-8561570.70241526</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-8561570.70241526</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-8561570.70241526</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8561570.70241526</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-8561126.70241526</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-8561526.70241526</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-8571497.448215259</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-8571497.448215259</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-8571497.448215259</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-8510820.448215259</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-8521054.611915259</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-8521054.611915259</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8521054.611915259</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8521054.611915259</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-4396022.916669963</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-4396022.916669963</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ANKR ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-56576.14861526142</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-430873.6437152614</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1327205.325215261</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1211909.640915261</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2076261.171415261</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-7052254.853615261</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-6605094.545515261</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-6605094.545515261</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-6605094.545515261</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-7295448.748415261</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-7377490.360815261</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-7440434.89881526</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-7357184.89881526</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-8509479.542315261</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-8183955.958415261</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-8183607.095715261</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-8183607.095715261</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-8183607.095715261</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-8082417.124815261</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-8778811.36331526</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-8617407.704815259</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-8656611.017415259</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-8680395.017415259</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-8561570.70241526</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-8561570.70241526</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-8561570.70241526</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8561570.70241526</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-8561126.70241526</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-8561526.70241526</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-8571497.448215259</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-8571497.448215259</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-8571497.448215259</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-8510820.448215259</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-8521054.611915259</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-8521054.611915259</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8521054.611915259</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8521054.611915259</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-4396022.916669963</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
